--- a/dy_qT/expdata/10010.xlsx
+++ b/dy_qT/expdata/10010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/fitpack2/database/dy_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88B0554-E458-ED4E-8B27-292BA5F3DB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE694DCD-F17B-EF44-BD08-73468EAA19E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="4460" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="3900" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CMS13-00y04-norm" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="32">
   <si>
     <t>FiducialCuts</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>1/GeV^3</t>
+  </si>
+  <si>
+    <t>leptons</t>
+  </si>
+  <si>
+    <t>dressed</t>
   </si>
 </sst>
 </file>
@@ -969,15 +975,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M35"/>
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="25" max="25" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1053,8 +1062,11 @@
       <c r="Y1" t="s">
         <v>26</v>
       </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>SQRT(169000000)</f>
         <v>13000</v>
@@ -1132,8 +1144,11 @@
       <c r="Y2" t="s">
         <v>27</v>
       </c>
+      <c r="Z2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>SQRT(169000000)</f>
         <v>13000</v>
@@ -1211,8 +1226,11 @@
       <c r="Y3" t="s">
         <v>27</v>
       </c>
+      <c r="Z3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A35" si="1">SQRT(169000000)</f>
         <v>13000</v>
@@ -1290,8 +1308,11 @@
       <c r="Y4" t="s">
         <v>27</v>
       </c>
+      <c r="Z4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1369,8 +1390,11 @@
       <c r="Y5" t="s">
         <v>27</v>
       </c>
+      <c r="Z5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1448,8 +1472,11 @@
       <c r="Y6" t="s">
         <v>27</v>
       </c>
+      <c r="Z6" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1527,8 +1554,11 @@
       <c r="Y7" t="s">
         <v>27</v>
       </c>
+      <c r="Z7" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1606,8 +1636,11 @@
       <c r="Y8" t="s">
         <v>27</v>
       </c>
+      <c r="Z8" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1685,8 +1718,11 @@
       <c r="Y9" t="s">
         <v>27</v>
       </c>
+      <c r="Z9" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1764,8 +1800,11 @@
       <c r="Y10" t="s">
         <v>27</v>
       </c>
+      <c r="Z10" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1843,8 +1882,11 @@
       <c r="Y11" t="s">
         <v>27</v>
       </c>
+      <c r="Z11" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -1922,8 +1964,11 @@
       <c r="Y12" t="s">
         <v>27</v>
       </c>
+      <c r="Z12" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2001,8 +2046,11 @@
       <c r="Y13" t="s">
         <v>27</v>
       </c>
+      <c r="Z13" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2080,8 +2128,11 @@
       <c r="Y14" t="s">
         <v>27</v>
       </c>
+      <c r="Z14" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2159,8 +2210,11 @@
       <c r="Y15" t="s">
         <v>27</v>
       </c>
+      <c r="Z15" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2238,8 +2292,11 @@
       <c r="Y16" t="s">
         <v>27</v>
       </c>
+      <c r="Z16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2317,8 +2374,11 @@
       <c r="Y17" t="s">
         <v>27</v>
       </c>
+      <c r="Z17" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2396,8 +2456,11 @@
       <c r="Y18" t="s">
         <v>27</v>
       </c>
+      <c r="Z18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2475,8 +2538,11 @@
       <c r="Y19" t="s">
         <v>27</v>
       </c>
+      <c r="Z19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2554,8 +2620,11 @@
       <c r="Y20" t="s">
         <v>27</v>
       </c>
+      <c r="Z20" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2633,8 +2702,11 @@
       <c r="Y21" t="s">
         <v>27</v>
       </c>
+      <c r="Z21" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2712,8 +2784,11 @@
       <c r="Y22" t="s">
         <v>27</v>
       </c>
+      <c r="Z22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2791,8 +2866,11 @@
       <c r="Y23" t="s">
         <v>27</v>
       </c>
+      <c r="Z23" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2870,8 +2948,11 @@
       <c r="Y24" t="s">
         <v>27</v>
       </c>
+      <c r="Z24" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -2949,8 +3030,11 @@
       <c r="Y25" t="s">
         <v>27</v>
       </c>
+      <c r="Z25" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3028,8 +3112,11 @@
       <c r="Y26" t="s">
         <v>27</v>
       </c>
+      <c r="Z26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3107,8 +3194,11 @@
       <c r="Y27" t="s">
         <v>27</v>
       </c>
+      <c r="Z27" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3186,8 +3276,11 @@
       <c r="Y28" t="s">
         <v>27</v>
       </c>
+      <c r="Z28" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3265,8 +3358,11 @@
       <c r="Y29" t="s">
         <v>27</v>
       </c>
+      <c r="Z29" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3344,8 +3440,11 @@
       <c r="Y30" t="s">
         <v>27</v>
       </c>
+      <c r="Z30" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3423,8 +3522,11 @@
       <c r="Y31" t="s">
         <v>27</v>
       </c>
+      <c r="Z31" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3502,8 +3604,11 @@
       <c r="Y32" t="s">
         <v>27</v>
       </c>
+      <c r="Z32" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3581,8 +3686,11 @@
       <c r="Y33" t="s">
         <v>27</v>
       </c>
+      <c r="Z33" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3660,8 +3768,11 @@
       <c r="Y34" t="s">
         <v>27</v>
       </c>
+      <c r="Z34" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>13000</v>
@@ -3738,6 +3849,9 @@
       </c>
       <c r="Y35" t="s">
         <v>27</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
